--- a/config/excel/ExampleData.xlsx
+++ b/config/excel/ExampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22875" windowHeight="14280" activeTab="1"/>
+    <workbookView windowWidth="22875" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="ConfNPC" sheetId="1" r:id="rId1"/>
@@ -1164,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="15" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1383,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
